--- a/Code/Results/Cases/Case_1_131/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_131/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.361349679516678</v>
+        <v>1.095202203248022</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1264138844592124</v>
+        <v>0.3417225973513141</v>
       </c>
       <c r="E2">
-        <v>0.1733999123798018</v>
+        <v>0.3266785670077468</v>
       </c>
       <c r="F2">
-        <v>0.5610872542742769</v>
+        <v>1.063701366722306</v>
       </c>
       <c r="G2">
-        <v>0.4325432948669174</v>
+        <v>0.4948235029918493</v>
       </c>
       <c r="H2">
-        <v>0.3018314167727283</v>
+        <v>0.6208848012654329</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2836479195154098</v>
+        <v>0.4015298274453798</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.5717579660348804</v>
+        <v>0.2246413329668542</v>
       </c>
       <c r="M2">
-        <v>0.4323385110924605</v>
+        <v>0.2549501717827383</v>
       </c>
       <c r="N2">
-        <v>1.351055312218307</v>
+        <v>1.769497395984629</v>
       </c>
       <c r="O2">
-        <v>1.499492539500665</v>
+        <v>2.193774985900433</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.199535770689891</v>
+        <v>1.050540982382017</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1295490702600803</v>
+        <v>0.3440791985611105</v>
       </c>
       <c r="E3">
-        <v>0.1728880046095274</v>
+        <v>0.3274015146307256</v>
       </c>
       <c r="F3">
-        <v>0.5333244920157085</v>
+        <v>1.065355026220061</v>
       </c>
       <c r="G3">
-        <v>0.3921512604783572</v>
+        <v>0.4886478917314037</v>
       </c>
       <c r="H3">
-        <v>0.2880049728223639</v>
+        <v>0.6217177850670765</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2758163080937663</v>
+        <v>0.3997543040480593</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4980173923284923</v>
+        <v>0.2016301905595128</v>
       </c>
       <c r="M3">
-        <v>0.377589291322856</v>
+        <v>0.2387934273924301</v>
       </c>
       <c r="N3">
-        <v>1.332876005285129</v>
+        <v>1.768414486219925</v>
       </c>
       <c r="O3">
-        <v>1.384562547615417</v>
+        <v>2.182139606050981</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.10054659020264</v>
+        <v>1.023408645877481</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1315850916303227</v>
+        <v>0.3456134531433843</v>
       </c>
       <c r="E4">
-        <v>0.1726567148649991</v>
+        <v>0.3279113982133932</v>
       </c>
       <c r="F4">
-        <v>0.5173357138005841</v>
+        <v>1.066969736196498</v>
       </c>
       <c r="G4">
-        <v>0.3681059873636059</v>
+        <v>0.4852034929766944</v>
       </c>
       <c r="H4">
-        <v>0.2800015637631077</v>
+        <v>0.6225247511646046</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2710826698269173</v>
+        <v>0.3987266893061872</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4526860751183932</v>
+        <v>0.1874778665555255</v>
       </c>
       <c r="M4">
-        <v>0.3440082109544704</v>
+        <v>0.2289085101798136</v>
       </c>
       <c r="N4">
-        <v>1.322907531674815</v>
+        <v>1.768376323061432</v>
       </c>
       <c r="O4">
-        <v>1.316603981117481</v>
+        <v>2.176340052047209</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.060288924948338</v>
+        <v>1.012425951366907</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1324425237428271</v>
+        <v>0.3462606697953605</v>
       </c>
       <c r="E5">
-        <v>0.1725834074509613</v>
+        <v>0.32813585204544</v>
       </c>
       <c r="F5">
-        <v>0.5110731703154912</v>
+        <v>1.067778524063066</v>
       </c>
       <c r="G5">
-        <v>0.3584846495462841</v>
+        <v>0.4838872161587346</v>
       </c>
       <c r="H5">
-        <v>0.2768566321068704</v>
+        <v>0.6229279833317776</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2691727091574165</v>
+        <v>0.3983238137255398</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4341968207818496</v>
+        <v>0.1817052837766653</v>
       </c>
       <c r="M5">
-        <v>0.3303296397648694</v>
+        <v>0.2248895779670406</v>
       </c>
       <c r="N5">
-        <v>1.319137840223419</v>
+        <v>1.768518965458583</v>
       </c>
       <c r="O5">
-        <v>1.289527468879953</v>
+        <v>2.17431490309653</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.053608777840282</v>
+        <v>1.010606781444949</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1325865698905853</v>
+        <v>0.3463694694273487</v>
       </c>
       <c r="E6">
-        <v>0.1725725018746047</v>
+        <v>0.3281741316891544</v>
       </c>
       <c r="F6">
-        <v>0.5100481932618024</v>
+        <v>1.067921931421829</v>
       </c>
       <c r="G6">
-        <v>0.3568973823780368</v>
+        <v>0.4836739239781451</v>
       </c>
       <c r="H6">
-        <v>0.2763412944024282</v>
+        <v>0.6229994348207128</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2688567166545965</v>
+        <v>0.398257880523083</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4311256298105235</v>
+        <v>0.1807464392080931</v>
       </c>
       <c r="M6">
-        <v>0.3280586054881738</v>
+        <v>0.2242228065130902</v>
       </c>
       <c r="N6">
-        <v>1.318529339267911</v>
+        <v>1.768552223216304</v>
       </c>
       <c r="O6">
-        <v>1.285067606355966</v>
+        <v>2.173999059094541</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.100003345940394</v>
+        <v>1.023260228564993</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1315965431814372</v>
+        <v>0.3456220926142368</v>
       </c>
       <c r="E7">
-        <v>0.1726556413176272</v>
+        <v>0.3279143576671828</v>
       </c>
       <c r="F7">
-        <v>0.5172502472058085</v>
+        <v>1.066980033199371</v>
       </c>
       <c r="G7">
-        <v>0.3679755290888522</v>
+        <v>0.4851853875914287</v>
       </c>
       <c r="H7">
-        <v>0.2799586856695981</v>
+        <v>0.6225298880009547</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2710568341166208</v>
+        <v>0.3987211914600479</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4524367923110191</v>
+        <v>0.1874000366886861</v>
       </c>
       <c r="M7">
-        <v>0.343823716336864</v>
+        <v>0.2288542715263517</v>
       </c>
       <c r="N7">
-        <v>1.322855517587413</v>
+        <v>1.768377605472708</v>
       </c>
       <c r="O7">
-        <v>1.316236369050927</v>
+        <v>2.176311370622926</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.305473826366807</v>
+        <v>1.079743486471784</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1274717501038491</v>
+        <v>0.3425170633165497</v>
       </c>
       <c r="E8">
-        <v>0.173206214627994</v>
+        <v>0.3269141896459935</v>
       </c>
       <c r="F8">
-        <v>0.5512871582496146</v>
+        <v>1.064147190172605</v>
       </c>
       <c r="G8">
-        <v>0.4184514637277346</v>
+        <v>0.4926220198724991</v>
       </c>
       <c r="H8">
-        <v>0.2969596505501215</v>
+        <v>0.6211107265659734</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2809321126516338</v>
+        <v>0.4009047329633333</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.5463417642698829</v>
+        <v>0.2167122296682464</v>
       </c>
       <c r="M8">
-        <v>0.4134518949127042</v>
+        <v>0.2493721876606472</v>
       </c>
       <c r="N8">
-        <v>1.344534619634317</v>
+        <v>1.768994277366403</v>
       </c>
       <c r="O8">
-        <v>1.459299210383563</v>
+        <v>2.189484083185619</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.711826670067296</v>
+        <v>1.192765660987618</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1202718953424693</v>
+        <v>0.3371186628569807</v>
       </c>
       <c r="E9">
-        <v>0.174942017046483</v>
+        <v>0.3254730966148642</v>
       </c>
       <c r="F9">
-        <v>0.6270411575991233</v>
+        <v>1.06334586293498</v>
       </c>
       <c r="G9">
-        <v>0.5240362496708144</v>
+        <v>0.5099648123708818</v>
       </c>
       <c r="H9">
-        <v>0.3344279002148198</v>
+        <v>0.6206696552079762</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.30088653229339</v>
+        <v>0.4056766715089637</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.7302006073740586</v>
+        <v>0.2739891466851248</v>
       </c>
       <c r="M9">
-        <v>0.550415813836473</v>
+        <v>0.2898750828027801</v>
       </c>
       <c r="N9">
-        <v>1.396885353297591</v>
+        <v>1.775152314202799</v>
       </c>
       <c r="O9">
-        <v>1.762402198589143</v>
+        <v>2.225984782991389</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.01327074590364</v>
+        <v>1.277133798135992</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.115535510019908</v>
+        <v>0.3335705301245921</v>
       </c>
       <c r="E10">
-        <v>0.176614353760236</v>
+        <v>0.3247270274536866</v>
       </c>
       <c r="F10">
-        <v>0.689093555757367</v>
+        <v>1.065654644021024</v>
       </c>
       <c r="G10">
-        <v>0.6065289285827902</v>
+        <v>0.5243948421870641</v>
       </c>
       <c r="H10">
-        <v>0.3648756057553015</v>
+        <v>0.6217703461867785</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3159004284215783</v>
+        <v>0.4094732642748511</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.8653335078679163</v>
+        <v>0.3159249837692357</v>
       </c>
       <c r="M10">
-        <v>0.6515253729249153</v>
+        <v>0.3197804095436325</v>
       </c>
       <c r="N10">
-        <v>1.441888121517138</v>
+        <v>1.782663669819698</v>
       </c>
       <c r="O10">
-        <v>2.001584259127384</v>
+        <v>2.259312954436155</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.151227801333619</v>
+        <v>1.315794765838575</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1135036310698281</v>
+        <v>0.3320465535065185</v>
       </c>
       <c r="E11">
-        <v>0.1774608284475505</v>
+        <v>0.3244545885188117</v>
       </c>
       <c r="F11">
-        <v>0.7189245893032989</v>
+        <v>1.067334128420541</v>
       </c>
       <c r="G11">
-        <v>0.6453368384246971</v>
+        <v>0.5313274285387735</v>
       </c>
       <c r="H11">
-        <v>0.3794562858674482</v>
+        <v>0.6225798869067916</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3228065284958959</v>
+        <v>0.4112618681234324</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.9268762976703044</v>
+        <v>0.3349668721132275</v>
       </c>
       <c r="M11">
-        <v>0.6976815922148276</v>
+        <v>0.3334141999206395</v>
       </c>
       <c r="N11">
-        <v>1.463909336792725</v>
+        <v>1.786723341002926</v>
       </c>
       <c r="O11">
-        <v>2.114623750492598</v>
+        <v>2.275890514696385</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.203604329189147</v>
+        <v>1.330474174919857</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1127521032667929</v>
+        <v>0.331482371066588</v>
       </c>
       <c r="E12">
-        <v>0.1777936476674178</v>
+        <v>0.3243609727818004</v>
       </c>
       <c r="F12">
-        <v>0.7304701759100425</v>
+        <v>1.068060549430484</v>
       </c>
       <c r="G12">
-        <v>0.6602354092921843</v>
+        <v>0.5340056418504986</v>
       </c>
       <c r="H12">
-        <v>0.3850910101227498</v>
+        <v>0.6229307856327608</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3254325588438576</v>
+        <v>0.4119478624374224</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.9501958484851798</v>
+        <v>0.3421720734468181</v>
       </c>
       <c r="M12">
-        <v>0.7151875507454548</v>
+        <v>0.3385809137753952</v>
       </c>
       <c r="N12">
-        <v>1.472482207145561</v>
+        <v>1.78835251903854</v>
       </c>
       <c r="O12">
-        <v>2.158095184201983</v>
+        <v>2.282371693129534</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.192317827073566</v>
+        <v>1.327310969961275</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1129131579054459</v>
+        <v>0.3316033041108732</v>
       </c>
       <c r="E13">
-        <v>0.1777214237632982</v>
+        <v>0.3243807110397086</v>
       </c>
       <c r="F13">
-        <v>0.7279722324859108</v>
+        <v>1.067900080165018</v>
       </c>
       <c r="G13">
-        <v>0.6570174043563384</v>
+        <v>0.5334264832933826</v>
       </c>
       <c r="H13">
-        <v>0.3838722912033745</v>
+        <v>0.62285324219404</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3248665158035848</v>
+        <v>0.4117997373408571</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.9451728385334377</v>
+        <v>0.3406205595418044</v>
       </c>
       <c r="M13">
-        <v>0.7114160272821266</v>
+        <v>0.3374680023650498</v>
       </c>
       <c r="N13">
-        <v>1.470625298367594</v>
+        <v>1.787997569256518</v>
       </c>
       <c r="O13">
-        <v>2.148702272655015</v>
+        <v>2.280966800534713</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.155534044663398</v>
+        <v>1.317001667737202</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1134414421685999</v>
+        <v>0.3319998792808483</v>
       </c>
       <c r="E14">
-        <v>0.1774879638838769</v>
+        <v>0.3244466957174126</v>
       </c>
       <c r="F14">
-        <v>0.7198693455186742</v>
+        <v>1.067392079276743</v>
       </c>
       <c r="G14">
-        <v>0.6465583764631617</v>
+        <v>0.5315467045113849</v>
       </c>
       <c r="H14">
-        <v>0.3799175365498115</v>
+        <v>0.622607867232162</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3230223569565212</v>
+        <v>0.4113181320475761</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.9287944904383778</v>
+        <v>0.3355597625671862</v>
       </c>
       <c r="M14">
-        <v>0.6991212380949321</v>
+        <v>0.3338391927166313</v>
       </c>
       <c r="N14">
-        <v>1.464609877876256</v>
+        <v>1.786855536421484</v>
       </c>
       <c r="O14">
-        <v>2.118186487545501</v>
+        <v>2.276419644744351</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.13302101582741</v>
+        <v>1.310692011934464</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1137673704814151</v>
+        <v>0.3322444736827022</v>
       </c>
       <c r="E15">
-        <v>0.1773465605168063</v>
+        <v>0.3244883547894517</v>
       </c>
       <c r="F15">
-        <v>0.714939124635535</v>
+        <v>1.067092690305643</v>
       </c>
       <c r="G15">
-        <v>0.6401789101598894</v>
+        <v>0.530402187976776</v>
       </c>
       <c r="H15">
-        <v>0.3775101533809817</v>
+        <v>0.6224633408092473</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3218941649029787</v>
+        <v>0.4110242617983886</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.9187643265566408</v>
+        <v>0.3324591401490693</v>
       </c>
       <c r="M15">
-        <v>0.6915940569991932</v>
+        <v>0.3316169378313631</v>
       </c>
       <c r="N15">
-        <v>1.460956063389048</v>
+        <v>1.786167956036437</v>
       </c>
       <c r="O15">
-        <v>2.099583153621126</v>
+        <v>2.273660895456004</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.004272946903257</v>
+        <v>1.274612779838492</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.115670788930859</v>
+        <v>0.3336719349378785</v>
       </c>
       <c r="E16">
-        <v>0.1765607552660775</v>
+        <v>0.3247461726622127</v>
       </c>
       <c r="F16">
-        <v>0.6871778574512604</v>
+        <v>1.065557543428049</v>
       </c>
       <c r="G16">
-        <v>0.6040200884528701</v>
+        <v>0.5239491952475674</v>
       </c>
       <c r="H16">
-        <v>0.363938114775209</v>
+        <v>0.621723649602302</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3154506215045743</v>
+        <v>0.4093575992153902</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.8613133328585434</v>
+        <v>0.314679803710959</v>
       </c>
       <c r="M16">
-        <v>0.648512567554107</v>
+        <v>0.3188899746898457</v>
       </c>
       <c r="N16">
-        <v>1.440481094935038</v>
+        <v>1.782411246429888</v>
       </c>
       <c r="O16">
-        <v>1.994286850297243</v>
+        <v>2.258258068468962</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.925513465433909</v>
+        <v>1.252550623665059</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.116870082969657</v>
+        <v>0.3345706810749083</v>
       </c>
       <c r="E17">
-        <v>0.1761006078494667</v>
+        <v>0.3249214288977207</v>
       </c>
       <c r="F17">
-        <v>0.6705707452791998</v>
+        <v>1.06477690593956</v>
       </c>
       <c r="G17">
-        <v>0.5821788948162947</v>
+        <v>0.5200848461827263</v>
       </c>
       <c r="H17">
-        <v>0.3558048362708774</v>
+        <v>0.6213489249025628</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3115171449338874</v>
+        <v>0.4083507992850741</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.8260900858084028</v>
+        <v>0.303763435259242</v>
       </c>
       <c r="M17">
-        <v>0.622127760688663</v>
+        <v>0.3110897342059218</v>
       </c>
       <c r="N17">
-        <v>1.4283248794504</v>
+        <v>1.780270846361972</v>
       </c>
       <c r="O17">
-        <v>1.930814839335568</v>
+        <v>2.249171666606458</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.880290064988344</v>
+        <v>1.239887616898898</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1175714208220153</v>
+        <v>0.3350960978501201</v>
       </c>
       <c r="E18">
-        <v>0.1758440142547926</v>
+        <v>0.3250285380151361</v>
       </c>
       <c r="F18">
-        <v>0.6611684762074148</v>
+        <v>1.064387130599002</v>
       </c>
       <c r="G18">
-        <v>0.5697358637655299</v>
+        <v>0.517896838458924</v>
       </c>
       <c r="H18">
-        <v>0.3511949541228034</v>
+        <v>0.6211624657606336</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3092618919583714</v>
+        <v>0.4077775139956046</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.8058369137843613</v>
+        <v>0.2974813719853557</v>
       </c>
       <c r="M18">
-        <v>0.6069667829885006</v>
+        <v>0.3066060609557368</v>
       </c>
       <c r="N18">
-        <v>1.421478061622508</v>
+        <v>1.779100273152366</v>
       </c>
       <c r="O18">
-        <v>1.894702351408199</v>
+        <v>2.24407873154388</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.864990948029401</v>
+        <v>1.235604737097702</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1178108555601241</v>
+        <v>0.3352754529143698</v>
       </c>
       <c r="E19">
-        <v>0.1757585238516448</v>
+        <v>0.325065888785609</v>
       </c>
       <c r="F19">
-        <v>0.6580101903117139</v>
+        <v>1.064265332887949</v>
       </c>
       <c r="G19">
-        <v>0.565542836210625</v>
+        <v>0.5171619691142837</v>
       </c>
       <c r="H19">
-        <v>0.3496455881143277</v>
+        <v>0.6211043291627618</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3084995388558127</v>
+        <v>0.4075844102904824</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.7989804891671497</v>
+        <v>0.2953538299472882</v>
       </c>
       <c r="M19">
-        <v>0.60183595939138</v>
+        <v>0.3050884619057541</v>
       </c>
       <c r="N19">
-        <v>1.419184441775016</v>
+        <v>1.778714349942305</v>
       </c>
       <c r="O19">
-        <v>1.882541439828117</v>
+        <v>2.24237725139804</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.93388946800394</v>
+        <v>1.254896437029913</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1167412203926403</v>
+        <v>0.3344741304740606</v>
       </c>
       <c r="E20">
-        <v>0.1761487563773372</v>
+        <v>0.3249021204431912</v>
       </c>
       <c r="F20">
-        <v>0.6723229753632083</v>
+        <v>1.064853876696702</v>
       </c>
       <c r="G20">
-        <v>0.584491434360217</v>
+        <v>0.5204926249334108</v>
       </c>
       <c r="H20">
-        <v>0.3566635239244391</v>
+        <v>0.6213858065608804</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3119351281657856</v>
+        <v>0.408457375778319</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.8298389760812483</v>
+        <v>0.3049258421966101</v>
       </c>
       <c r="M20">
-        <v>0.6249348987355958</v>
+        <v>0.3119197941336012</v>
       </c>
       <c r="N20">
-        <v>1.429603831810866</v>
+        <v>1.78049243518096</v>
       </c>
       <c r="O20">
-        <v>1.937530268630326</v>
+        <v>2.250125131600953</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.166334530979952</v>
+        <v>1.320028701083004</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1132857843678079</v>
+        <v>0.3318830453636195</v>
       </c>
       <c r="E21">
-        <v>0.1775562038611653</v>
+        <v>0.3244270558161908</v>
       </c>
       <c r="F21">
-        <v>0.7222424410656174</v>
+        <v>1.067538837371899</v>
       </c>
       <c r="G21">
-        <v>0.6496247868344085</v>
+        <v>0.532097402627528</v>
       </c>
       <c r="H21">
-        <v>0.3810759983056471</v>
+        <v>0.6226787368733966</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3235637377717637</v>
+        <v>0.4114593566308002</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.9336047729640029</v>
+        <v>0.3370463960780796</v>
       </c>
       <c r="M21">
-        <v>0.7027317294734772</v>
+        <v>0.3349049594234117</v>
       </c>
       <c r="N21">
-        <v>1.466370312308271</v>
+        <v>1.787188490236687</v>
       </c>
       <c r="O21">
-        <v>2.127131170176767</v>
+        <v>2.277749729053312</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.319047039492602</v>
+        <v>1.362825176398189</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1111319241729771</v>
+        <v>0.330264878273097</v>
       </c>
       <c r="E22">
-        <v>0.1785475968850854</v>
+        <v>0.3241722087107277</v>
       </c>
       <c r="F22">
-        <v>0.7563299055208859</v>
+        <v>1.069820728042728</v>
       </c>
       <c r="G22">
-        <v>0.6933851347550188</v>
+        <v>0.5399906953990268</v>
       </c>
       <c r="H22">
-        <v>0.3976958808646458</v>
+        <v>0.623782176930888</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3312268484370691</v>
+        <v>0.4134718975655431</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.001509409984152</v>
+        <v>0.3580064509978627</v>
       </c>
       <c r="M22">
-        <v>0.7537396450108957</v>
+        <v>0.3499496118144592</v>
       </c>
       <c r="N22">
-        <v>1.491768407758798</v>
+        <v>1.792099978061501</v>
       </c>
       <c r="O22">
-        <v>2.254956512628354</v>
+        <v>2.2969907994501</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.237463051595626</v>
+        <v>1.339963334163428</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1122718336928203</v>
+        <v>0.3311216516346103</v>
       </c>
       <c r="E23">
-        <v>0.1780119401286413</v>
+        <v>0.3243031600099755</v>
       </c>
       <c r="F23">
-        <v>0.7379964972193847</v>
+        <v>1.068554623554107</v>
       </c>
       <c r="G23">
-        <v>0.6699138872898942</v>
+        <v>0.5357496216675628</v>
       </c>
       <c r="H23">
-        <v>0.3887617774081491</v>
+        <v>0.6231696253023813</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3271311590957282</v>
+        <v>0.4123931908505938</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.965257795520273</v>
+        <v>0.3468228298254985</v>
       </c>
       <c r="M23">
-        <v>0.7264992674629411</v>
+        <v>0.3419180621701301</v>
       </c>
       <c r="N23">
-        <v>1.478083843198689</v>
+        <v>1.789429832233651</v>
       </c>
       <c r="O23">
-        <v>2.186356117689286</v>
+        <v>2.286612907350843</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.930102502534538</v>
+        <v>1.253835829864556</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1167994422795458</v>
+        <v>0.3345177538512187</v>
       </c>
       <c r="E24">
-        <v>0.1761269636576301</v>
+        <v>0.3249108300044163</v>
       </c>
       <c r="F24">
-        <v>0.6715303407132112</v>
+        <v>1.064818894360442</v>
       </c>
       <c r="G24">
-        <v>0.5834455822783582</v>
+        <v>0.5203081633209479</v>
       </c>
       <c r="H24">
-        <v>0.3562751061386678</v>
+        <v>0.6213690421017333</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3117461387656704</v>
+        <v>0.4084091752856338</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.8281441120297188</v>
+        <v>0.3044003369741404</v>
       </c>
       <c r="M24">
-        <v>0.6236657670411603</v>
+        <v>0.3115445215537562</v>
       </c>
       <c r="N24">
-        <v>1.429025176133408</v>
+        <v>1.780392068028476</v>
       </c>
       <c r="O24">
-        <v>1.934493048623068</v>
+        <v>2.249693662145404</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.601450374898661</v>
+        <v>1.161953146054714</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1221233398236272</v>
+        <v>0.3385054461836128</v>
       </c>
       <c r="E25">
-        <v>0.1744025102740068</v>
+        <v>0.3258077167666507</v>
       </c>
       <c r="F25">
-        <v>0.605493083798784</v>
+        <v>1.063053763786868</v>
       </c>
       <c r="G25">
-        <v>0.4946768370378436</v>
+        <v>0.5049770728293765</v>
       </c>
       <c r="H25">
-        <v>0.323809585734864</v>
+        <v>0.6205385637039598</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2954259078305981</v>
+        <v>0.4043341130683373</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.6804703959923444</v>
+        <v>0.2585182622153042</v>
       </c>
       <c r="M25">
-        <v>0.5132959278263343</v>
+        <v>0.2788909233220025</v>
       </c>
       <c r="N25">
-        <v>1.381615709904096</v>
+        <v>1.772959716444518</v>
       </c>
       <c r="O25">
-        <v>1.677716836174113</v>
+        <v>2.214967447626577</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_131/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_131/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.095202203248022</v>
+        <v>1.361349679516792</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3417225973513141</v>
+        <v>0.1264138844592582</v>
       </c>
       <c r="E2">
-        <v>0.3266785670077468</v>
+        <v>0.1733999123797858</v>
       </c>
       <c r="F2">
-        <v>1.063701366722306</v>
+        <v>0.5610872542742982</v>
       </c>
       <c r="G2">
-        <v>0.4948235029918493</v>
+        <v>0.4325432948668606</v>
       </c>
       <c r="H2">
-        <v>0.6208848012654329</v>
+        <v>0.301831416772842</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4015298274453798</v>
+        <v>0.2836479195154169</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2246413329668542</v>
+        <v>0.5717579660346956</v>
       </c>
       <c r="M2">
-        <v>0.2549501717827383</v>
+        <v>0.4323385110924747</v>
       </c>
       <c r="N2">
-        <v>1.769497395984629</v>
+        <v>1.35105531221835</v>
       </c>
       <c r="O2">
-        <v>2.193774985900433</v>
+        <v>1.499492539500721</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.050540982382017</v>
+        <v>1.19953577068992</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3440791985611105</v>
+        <v>0.1295490702600315</v>
       </c>
       <c r="E3">
-        <v>0.3274015146307256</v>
+        <v>0.17288800460957</v>
       </c>
       <c r="F3">
-        <v>1.065355026220061</v>
+        <v>0.5333244920157085</v>
       </c>
       <c r="G3">
-        <v>0.4886478917314037</v>
+        <v>0.3921512604783572</v>
       </c>
       <c r="H3">
-        <v>0.6217177850670765</v>
+        <v>0.2880049728222502</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3997543040480593</v>
+        <v>0.2758163080938303</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2016301905595128</v>
+        <v>0.4980173923284497</v>
       </c>
       <c r="M3">
-        <v>0.2387934273924301</v>
+        <v>0.377589291322856</v>
       </c>
       <c r="N3">
-        <v>1.768414486219925</v>
+        <v>1.332876005285144</v>
       </c>
       <c r="O3">
-        <v>2.182139606050981</v>
+        <v>1.384562547615388</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.023408645877481</v>
+        <v>1.100546590202498</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3456134531433843</v>
+        <v>0.131585091630229</v>
       </c>
       <c r="E4">
-        <v>0.3279113982133932</v>
+        <v>0.1726567148649956</v>
       </c>
       <c r="F4">
-        <v>1.066969736196498</v>
+        <v>0.5173357138005912</v>
       </c>
       <c r="G4">
-        <v>0.4852034929766944</v>
+        <v>0.3681059873635917</v>
       </c>
       <c r="H4">
-        <v>0.6225247511646046</v>
+        <v>0.280001563762994</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3987266893061872</v>
+        <v>0.2710826698268747</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1874778665555255</v>
+        <v>0.4526860751185211</v>
       </c>
       <c r="M4">
-        <v>0.2289085101798136</v>
+        <v>0.3440082109544633</v>
       </c>
       <c r="N4">
-        <v>1.768376323061432</v>
+        <v>1.322907531674801</v>
       </c>
       <c r="O4">
-        <v>2.176340052047209</v>
+        <v>1.316603981117396</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.012425951366907</v>
+        <v>1.060288924948424</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.3462606697953605</v>
+        <v>0.1324425237428275</v>
       </c>
       <c r="E5">
-        <v>0.32813585204544</v>
+        <v>0.1725834074509383</v>
       </c>
       <c r="F5">
-        <v>1.067778524063066</v>
+        <v>0.5110731703154912</v>
       </c>
       <c r="G5">
-        <v>0.4838872161587346</v>
+        <v>0.3584846495462273</v>
       </c>
       <c r="H5">
-        <v>0.6229279833317776</v>
+        <v>0.2768566321069841</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3983238137255398</v>
+        <v>0.2691727091573668</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1817052837766653</v>
+        <v>0.4341968207819633</v>
       </c>
       <c r="M5">
-        <v>0.2248895779670406</v>
+        <v>0.3303296397648765</v>
       </c>
       <c r="N5">
-        <v>1.768518965458583</v>
+        <v>1.319137840223419</v>
       </c>
       <c r="O5">
-        <v>2.17431490309653</v>
+        <v>1.289527468879953</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.010606781444949</v>
+        <v>1.053608777840168</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.3463694694273487</v>
+        <v>0.1325865698904662</v>
       </c>
       <c r="E6">
-        <v>0.3281741316891544</v>
+        <v>0.1725725018745585</v>
       </c>
       <c r="F6">
-        <v>1.067921931421829</v>
+        <v>0.5100481932618095</v>
       </c>
       <c r="G6">
-        <v>0.4836739239781451</v>
+        <v>0.3568973823780368</v>
       </c>
       <c r="H6">
-        <v>0.6229994348207128</v>
+        <v>0.2763412944023145</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.398257880523083</v>
+        <v>0.2688567166545681</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1807464392080931</v>
+        <v>0.4311256298106372</v>
       </c>
       <c r="M6">
-        <v>0.2242228065130902</v>
+        <v>0.3280586054881596</v>
       </c>
       <c r="N6">
-        <v>1.768552223216304</v>
+        <v>1.318529339267897</v>
       </c>
       <c r="O6">
-        <v>2.173999059094541</v>
+        <v>1.285067606355966</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.023260228564993</v>
+        <v>1.100003345940394</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.3456220926142368</v>
+        <v>0.1315965431815571</v>
       </c>
       <c r="E7">
-        <v>0.3279143576671828</v>
+        <v>0.172655641317645</v>
       </c>
       <c r="F7">
-        <v>1.066980033199371</v>
+        <v>0.5172502472058085</v>
       </c>
       <c r="G7">
-        <v>0.4851853875914287</v>
+        <v>0.3679755290887243</v>
       </c>
       <c r="H7">
-        <v>0.6225298880009547</v>
+        <v>0.2799586856695839</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3987211914600479</v>
+        <v>0.2710568341166848</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1874000366886861</v>
+        <v>0.4524367923110333</v>
       </c>
       <c r="M7">
-        <v>0.2288542715263517</v>
+        <v>0.3438237163368711</v>
       </c>
       <c r="N7">
-        <v>1.768377605472708</v>
+        <v>1.322855517587399</v>
       </c>
       <c r="O7">
-        <v>2.176311370622926</v>
+        <v>1.316236369050984</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.079743486471784</v>
+        <v>1.305473826366949</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3425170633165497</v>
+        <v>0.1274717501040064</v>
       </c>
       <c r="E8">
-        <v>0.3269141896459935</v>
+        <v>0.1732062146279922</v>
       </c>
       <c r="F8">
-        <v>1.064147190172605</v>
+        <v>0.5512871582496075</v>
       </c>
       <c r="G8">
-        <v>0.4926220198724991</v>
+        <v>0.418451463727763</v>
       </c>
       <c r="H8">
-        <v>0.6211107265659734</v>
+        <v>0.2969596505501215</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4009047329633333</v>
+        <v>0.2809321126517617</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2167122296682464</v>
+        <v>0.5463417642698118</v>
       </c>
       <c r="M8">
-        <v>0.2493721876606472</v>
+        <v>0.4134518949126971</v>
       </c>
       <c r="N8">
-        <v>1.768994277366403</v>
+        <v>1.344534619634317</v>
       </c>
       <c r="O8">
-        <v>2.189484083185619</v>
+        <v>1.459299210383506</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.192765660987618</v>
+        <v>1.711826670067126</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3371186628569807</v>
+        <v>0.1202718953422774</v>
       </c>
       <c r="E9">
-        <v>0.3254730966148642</v>
+        <v>0.1749420170464653</v>
       </c>
       <c r="F9">
-        <v>1.06334586293498</v>
+        <v>0.6270411575991375</v>
       </c>
       <c r="G9">
-        <v>0.5099648123708818</v>
+        <v>0.5240362496708286</v>
       </c>
       <c r="H9">
-        <v>0.6206696552079762</v>
+        <v>0.3344279002149193</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.4056766715089637</v>
+        <v>0.3008865322933403</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2739891466851248</v>
+        <v>0.7302006073739449</v>
       </c>
       <c r="M9">
-        <v>0.2898750828027801</v>
+        <v>0.5504158138364588</v>
       </c>
       <c r="N9">
-        <v>1.775152314202799</v>
+        <v>1.396885353297591</v>
       </c>
       <c r="O9">
-        <v>2.225984782991389</v>
+        <v>1.762402198589001</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.277133798135992</v>
+        <v>2.013270745903412</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3335705301245921</v>
+        <v>0.1155355100199658</v>
       </c>
       <c r="E10">
-        <v>0.3247270274536866</v>
+        <v>0.1766143537602218</v>
       </c>
       <c r="F10">
-        <v>1.065654644021024</v>
+        <v>0.6890935557573812</v>
       </c>
       <c r="G10">
-        <v>0.5243948421870641</v>
+        <v>0.606528928582847</v>
       </c>
       <c r="H10">
-        <v>0.6217703461867785</v>
+        <v>0.3648756057553015</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.4094732642748511</v>
+        <v>0.3159004284216351</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3159249837692357</v>
+        <v>0.8653335078679163</v>
       </c>
       <c r="M10">
-        <v>0.3197804095436325</v>
+        <v>0.6515253729249224</v>
       </c>
       <c r="N10">
-        <v>1.782663669819698</v>
+        <v>1.441888121517138</v>
       </c>
       <c r="O10">
-        <v>2.259312954436155</v>
+        <v>2.001584259127441</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.315794765838575</v>
+        <v>2.151227801333505</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3320465535065185</v>
+        <v>0.1135036310697126</v>
       </c>
       <c r="E11">
-        <v>0.3244545885188117</v>
+        <v>0.1774608284476002</v>
       </c>
       <c r="F11">
-        <v>1.067334128420541</v>
+        <v>0.7189245893032989</v>
       </c>
       <c r="G11">
-        <v>0.5313274285387735</v>
+        <v>0.6453368384246687</v>
       </c>
       <c r="H11">
-        <v>0.6225798869067916</v>
+        <v>0.3794562858674766</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4112618681234324</v>
+        <v>0.3228065284958106</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3349668721132275</v>
+        <v>0.9268762976704465</v>
       </c>
       <c r="M11">
-        <v>0.3334141999206395</v>
+        <v>0.6976815922148347</v>
       </c>
       <c r="N11">
-        <v>1.786723341002926</v>
+        <v>1.46390933679271</v>
       </c>
       <c r="O11">
-        <v>2.275890514696385</v>
+        <v>2.114623750492598</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.330474174919857</v>
+        <v>2.203604329189318</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.331482371066588</v>
+        <v>0.112752103266792</v>
       </c>
       <c r="E12">
-        <v>0.3243609727818004</v>
+        <v>0.1777936476674036</v>
       </c>
       <c r="F12">
-        <v>1.068060549430484</v>
+        <v>0.7304701759100425</v>
       </c>
       <c r="G12">
-        <v>0.5340056418504986</v>
+        <v>0.6602354092922411</v>
       </c>
       <c r="H12">
-        <v>0.6229307856327608</v>
+        <v>0.3850910101227498</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4119478624374224</v>
+        <v>0.3254325588437368</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3421720734468181</v>
+        <v>0.9501958484850661</v>
       </c>
       <c r="M12">
-        <v>0.3385809137753952</v>
+        <v>0.7151875507454477</v>
       </c>
       <c r="N12">
-        <v>1.78835251903854</v>
+        <v>1.472482207145575</v>
       </c>
       <c r="O12">
-        <v>2.282371693129534</v>
+        <v>2.158095184201983</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.327310969961275</v>
+        <v>2.192317827073509</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3316033041108732</v>
+        <v>0.1129131579053304</v>
       </c>
       <c r="E13">
-        <v>0.3243807110397086</v>
+        <v>0.1777214237633018</v>
       </c>
       <c r="F13">
-        <v>1.067900080165018</v>
+        <v>0.7279722324859108</v>
       </c>
       <c r="G13">
-        <v>0.5334264832933826</v>
+        <v>0.6570174043563526</v>
       </c>
       <c r="H13">
-        <v>0.62285324219404</v>
+        <v>0.3838722912034882</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4117997373408571</v>
+        <v>0.3248665158035564</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3406205595418044</v>
+        <v>0.9451728385333524</v>
       </c>
       <c r="M13">
-        <v>0.3374680023650498</v>
+        <v>0.7114160272821195</v>
       </c>
       <c r="N13">
-        <v>1.787997569256518</v>
+        <v>1.47062529836758</v>
       </c>
       <c r="O13">
-        <v>2.280966800534713</v>
+        <v>2.148702272655072</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.317001667737202</v>
+        <v>2.155534044663341</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3319998792808483</v>
+        <v>0.113441442168654</v>
       </c>
       <c r="E14">
-        <v>0.3244466957174126</v>
+        <v>0.1774879638838982</v>
       </c>
       <c r="F14">
-        <v>1.067392079276743</v>
+        <v>0.7198693455186742</v>
       </c>
       <c r="G14">
-        <v>0.5315467045113849</v>
+        <v>0.6465583764631475</v>
       </c>
       <c r="H14">
-        <v>0.622607867232162</v>
+        <v>0.3799175365497121</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4113181320475761</v>
+        <v>0.3230223569565993</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3355597625671862</v>
+        <v>0.9287944904386052</v>
       </c>
       <c r="M14">
-        <v>0.3338391927166313</v>
+        <v>0.6991212380949321</v>
       </c>
       <c r="N14">
-        <v>1.786855536421484</v>
+        <v>1.464609877876271</v>
       </c>
       <c r="O14">
-        <v>2.276419644744351</v>
+        <v>2.118186487545472</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.310692011934464</v>
+        <v>2.13302101582741</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3322444736827022</v>
+        <v>0.1137673704816433</v>
       </c>
       <c r="E15">
-        <v>0.3244883547894517</v>
+        <v>0.1773465605167885</v>
       </c>
       <c r="F15">
-        <v>1.067092690305643</v>
+        <v>0.714939124635535</v>
       </c>
       <c r="G15">
-        <v>0.530402187976776</v>
+        <v>0.6401789101599036</v>
       </c>
       <c r="H15">
-        <v>0.6224633408092473</v>
+        <v>0.3775101533809817</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4110242617983886</v>
+        <v>0.3218941649029787</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3324591401490693</v>
+        <v>0.9187643265566692</v>
       </c>
       <c r="M15">
-        <v>0.3316169378313631</v>
+        <v>0.691594056999179</v>
       </c>
       <c r="N15">
-        <v>1.786167956036437</v>
+        <v>1.460956063389105</v>
       </c>
       <c r="O15">
-        <v>2.273660895456004</v>
+        <v>2.099583153621154</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.274612779838492</v>
+        <v>2.0042729469032</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3336719349378785</v>
+        <v>0.1156707889309705</v>
       </c>
       <c r="E16">
-        <v>0.3247461726622127</v>
+        <v>0.1765607552660775</v>
       </c>
       <c r="F16">
-        <v>1.065557543428049</v>
+        <v>0.6871778574512604</v>
       </c>
       <c r="G16">
-        <v>0.5239491952475674</v>
+        <v>0.6040200884529128</v>
       </c>
       <c r="H16">
-        <v>0.621723649602302</v>
+        <v>0.3639381147752232</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.4093575992153902</v>
+        <v>0.3154506215044748</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.314679803710959</v>
+        <v>0.8613133328585718</v>
       </c>
       <c r="M16">
-        <v>0.3188899746898457</v>
+        <v>0.6485125675541354</v>
       </c>
       <c r="N16">
-        <v>1.782411246429888</v>
+        <v>1.440481094935052</v>
       </c>
       <c r="O16">
-        <v>2.258258068468962</v>
+        <v>1.994286850297215</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.252550623665059</v>
+        <v>1.925513465433852</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3345706810749083</v>
+        <v>0.1168700829695974</v>
       </c>
       <c r="E17">
-        <v>0.3249214288977207</v>
+        <v>0.176100607849488</v>
       </c>
       <c r="F17">
-        <v>1.06477690593956</v>
+        <v>0.6705707452791998</v>
       </c>
       <c r="G17">
-        <v>0.5200848461827263</v>
+        <v>0.5821788948162663</v>
       </c>
       <c r="H17">
-        <v>0.6213489249025628</v>
+        <v>0.3558048362708774</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.4083507992850741</v>
+        <v>0.3115171449339798</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.303763435259242</v>
+        <v>0.8260900858084028</v>
       </c>
       <c r="M17">
-        <v>0.3110897342059218</v>
+        <v>0.6221277606886773</v>
       </c>
       <c r="N17">
-        <v>1.780270846361972</v>
+        <v>1.428324879450429</v>
       </c>
       <c r="O17">
-        <v>2.249171666606458</v>
+        <v>1.930814839335511</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.239887616898898</v>
+        <v>1.880290064988174</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3350960978501201</v>
+        <v>0.1175714208219061</v>
       </c>
       <c r="E18">
-        <v>0.3250285380151361</v>
+        <v>0.1758440142547713</v>
       </c>
       <c r="F18">
-        <v>1.064387130599002</v>
+        <v>0.6611684762073935</v>
       </c>
       <c r="G18">
-        <v>0.517896838458924</v>
+        <v>0.5697358637655867</v>
       </c>
       <c r="H18">
-        <v>0.6211624657606336</v>
+        <v>0.3511949541229313</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.4077775139956046</v>
+        <v>0.3092618919583501</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2974813719853557</v>
+        <v>0.8058369137844181</v>
       </c>
       <c r="M18">
-        <v>0.3066060609557368</v>
+        <v>0.6069667829885077</v>
       </c>
       <c r="N18">
-        <v>1.779100273152366</v>
+        <v>1.421478061622537</v>
       </c>
       <c r="O18">
-        <v>2.24407873154388</v>
+        <v>1.894702351408256</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.235604737097702</v>
+        <v>1.864990948029401</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3352754529143698</v>
+        <v>0.1178108555600099</v>
       </c>
       <c r="E19">
-        <v>0.325065888785609</v>
+        <v>0.1757585238516342</v>
       </c>
       <c r="F19">
-        <v>1.064265332887949</v>
+        <v>0.6580101903117352</v>
       </c>
       <c r="G19">
-        <v>0.5171619691142837</v>
+        <v>0.5655428362105823</v>
       </c>
       <c r="H19">
-        <v>0.6211043291627618</v>
+        <v>0.3496455881143277</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.4075844102904824</v>
+        <v>0.3084995388558198</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2953538299472882</v>
+        <v>0.7989804891671213</v>
       </c>
       <c r="M19">
-        <v>0.3050884619057541</v>
+        <v>0.6018359593913871</v>
       </c>
       <c r="N19">
-        <v>1.778714349942305</v>
+        <v>1.419184441774988</v>
       </c>
       <c r="O19">
-        <v>2.24237725139804</v>
+        <v>1.882541439828145</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.254896437029913</v>
+        <v>1.933889468003912</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3344741304740606</v>
+        <v>0.116741220392814</v>
       </c>
       <c r="E20">
-        <v>0.3249021204431912</v>
+        <v>0.1761487563773407</v>
       </c>
       <c r="F20">
-        <v>1.064853876696702</v>
+        <v>0.6723229753632225</v>
       </c>
       <c r="G20">
-        <v>0.5204926249334108</v>
+        <v>0.5844914343601886</v>
       </c>
       <c r="H20">
-        <v>0.6213858065608804</v>
+        <v>0.3566635239244391</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.408457375778319</v>
+        <v>0.3119351281659064</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3049258421966101</v>
+        <v>0.8298389760813052</v>
       </c>
       <c r="M20">
-        <v>0.3119197941336012</v>
+        <v>0.6249348987356029</v>
       </c>
       <c r="N20">
-        <v>1.78049243518096</v>
+        <v>1.42960383181088</v>
       </c>
       <c r="O20">
-        <v>2.250125131600953</v>
+        <v>1.937530268630383</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.320028701083004</v>
+        <v>2.166334530979896</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3318830453636195</v>
+        <v>0.1132857843678603</v>
       </c>
       <c r="E21">
-        <v>0.3244270558161908</v>
+        <v>0.1775562038611334</v>
       </c>
       <c r="F21">
-        <v>1.067538837371899</v>
+        <v>0.7222424410656174</v>
       </c>
       <c r="G21">
-        <v>0.532097402627528</v>
+        <v>0.6496247868344227</v>
       </c>
       <c r="H21">
-        <v>0.6226787368733966</v>
+        <v>0.3810759983056471</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.4114593566308002</v>
+        <v>0.3235637377718135</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3370463960780796</v>
+        <v>0.9336047729641166</v>
       </c>
       <c r="M21">
-        <v>0.3349049594234117</v>
+        <v>0.7027317294734843</v>
       </c>
       <c r="N21">
-        <v>1.787188490236687</v>
+        <v>1.466370312308314</v>
       </c>
       <c r="O21">
-        <v>2.277749729053312</v>
+        <v>2.127131170176767</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.362825176398189</v>
+        <v>2.319047039492773</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.330264878273097</v>
+        <v>0.1111319241727533</v>
       </c>
       <c r="E22">
-        <v>0.3241722087107277</v>
+        <v>0.1785475968850854</v>
       </c>
       <c r="F22">
-        <v>1.069820728042728</v>
+        <v>0.7563299055208859</v>
       </c>
       <c r="G22">
-        <v>0.5399906953990268</v>
+        <v>0.6933851347550188</v>
       </c>
       <c r="H22">
-        <v>0.623782176930888</v>
+        <v>0.3976958808646458</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4134718975655431</v>
+        <v>0.3312268484371259</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3580064509978627</v>
+        <v>1.00150940998418</v>
       </c>
       <c r="M22">
-        <v>0.3499496118144592</v>
+        <v>0.75373964501091</v>
       </c>
       <c r="N22">
-        <v>1.792099978061501</v>
+        <v>1.491768407758727</v>
       </c>
       <c r="O22">
-        <v>2.2969907994501</v>
+        <v>2.254956512628354</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.339963334163428</v>
+        <v>2.237463051595682</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.3311216516346103</v>
+        <v>0.1122718336928674</v>
       </c>
       <c r="E23">
-        <v>0.3243031600099755</v>
+        <v>0.1780119401286342</v>
       </c>
       <c r="F23">
-        <v>1.068554623554107</v>
+        <v>0.7379964972193989</v>
       </c>
       <c r="G23">
-        <v>0.5357496216675628</v>
+        <v>0.6699138872899226</v>
       </c>
       <c r="H23">
-        <v>0.6231696253023813</v>
+        <v>0.3887617774082628</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4123931908505938</v>
+        <v>0.3271311590956998</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3468228298254985</v>
+        <v>0.9652577955201878</v>
       </c>
       <c r="M23">
-        <v>0.3419180621701301</v>
+        <v>0.7264992674629269</v>
       </c>
       <c r="N23">
-        <v>1.789429832233651</v>
+        <v>1.478083843198675</v>
       </c>
       <c r="O23">
-        <v>2.286612907350843</v>
+        <v>2.186356117689286</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.253835829864556</v>
+        <v>1.930102502534538</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3345177538512187</v>
+        <v>0.1167994422796022</v>
       </c>
       <c r="E24">
-        <v>0.3249108300044163</v>
+        <v>0.1761269636576301</v>
       </c>
       <c r="F24">
-        <v>1.064818894360442</v>
+        <v>0.6715303407131969</v>
       </c>
       <c r="G24">
-        <v>0.5203081633209479</v>
+        <v>0.5834455822783298</v>
       </c>
       <c r="H24">
-        <v>0.6213690421017333</v>
+        <v>0.3562751061387956</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.4084091752856338</v>
+        <v>0.3117461387657343</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3044003369741404</v>
+        <v>0.8281441120297472</v>
       </c>
       <c r="M24">
-        <v>0.3115445215537562</v>
+        <v>0.6236657670411603</v>
       </c>
       <c r="N24">
-        <v>1.780392068028476</v>
+        <v>1.429025176133408</v>
       </c>
       <c r="O24">
-        <v>2.249693662145404</v>
+        <v>1.934493048623068</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.161953146054714</v>
+        <v>1.601450374898775</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.3385054461836128</v>
+        <v>0.1221233398233901</v>
       </c>
       <c r="E25">
-        <v>0.3258077167666507</v>
+        <v>0.1744025102740068</v>
       </c>
       <c r="F25">
-        <v>1.063053763786868</v>
+        <v>0.6054930837987769</v>
       </c>
       <c r="G25">
-        <v>0.5049770728293765</v>
+        <v>0.4946768370378578</v>
       </c>
       <c r="H25">
-        <v>0.6205385637039598</v>
+        <v>0.323809585734864</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.4043341130683373</v>
+        <v>0.2954259078307473</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2585182622153042</v>
+        <v>0.6804703959923728</v>
       </c>
       <c r="M25">
-        <v>0.2788909233220025</v>
+        <v>0.5132959278263556</v>
       </c>
       <c r="N25">
-        <v>1.772959716444518</v>
+        <v>1.381615709904096</v>
       </c>
       <c r="O25">
-        <v>2.214967447626577</v>
+        <v>1.67771683617417</v>
       </c>
     </row>
   </sheetData>
